--- a/papers/saga-mr-ngs/data/GS_data_f.xlsx
+++ b/papers/saga-mr-ngs/data/GS_data_f.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22202"/>
+  <workbookPr date1904="1" showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="160" windowWidth="37040" windowHeight="28820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1200" yWindow="1260" windowWidth="29800" windowHeight="19340" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GS data" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,10 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="340">
   <si>
     <t>1GB</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1368,18 +1367,15 @@
   <si>
     <t>Varying Input size, chunk size=62500 reads, number of reduces=8, number of workers=32</t>
   </si>
+  <si>
+    <t>Crossbow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1733,7 +1729,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -1741,7 +1737,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1760,21 +1764,26 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Map Phase time</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$F$5:$F$8</c:f>
@@ -1867,9 +1876,11 @@
           <c:tx>
             <c:v>Reduce phase time</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$H$5:$H$8</c:f>
@@ -1956,16 +1967,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="476988056"/>
-        <c:axId val="571890936"/>
+        <c:axId val="2115091688"/>
+        <c:axId val="2115086040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="476988056"/>
+        <c:axId val="2115091688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1984,20 +2004,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571890936"/>
+        <c:crossAx val="2115086040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="571890936"/>
+        <c:axId val="2115086040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2017,10 +2042,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476988056"/>
+        <c:crossAx val="2115091688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2028,9 +2056,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2044,12 +2074,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2109,33 +2149,47 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="582358040"/>
-        <c:axId val="509812808"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2117697512"/>
+        <c:axId val="2117700408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="582358040"/>
+        <c:axId val="2117697512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509812808"/>
+        <c:crossAx val="2117700408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="509812808"/>
+        <c:axId val="2117700408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="582358040"/>
+        <c:crossAx val="2117697512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2143,9 +2197,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2159,7 +2215,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2177,6 +2241,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2191,9 +2256,11 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$N$5:$N$7</c:f>
@@ -2281,9 +2348,11 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$Q$27:$Q$29</c:f>
@@ -2372,9 +2441,11 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$I$57:$I$59</c:f>
@@ -2449,15 +2520,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="570442456"/>
-        <c:axId val="570775752"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2113851976"/>
+        <c:axId val="2113857592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="570442456"/>
+        <c:axId val="2113851976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2483,8 +2563,11 @@
               <c:y val="0.900806562677764"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2496,17 +2579,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570775752"/>
+        <c:crossAx val="2113857592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="570775752"/>
+        <c:axId val="2113857592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -2525,8 +2610,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2538,7 +2626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570442456"/>
+        <c:crossAx val="2113851976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2562,6 +2650,7 @@
           <c:h val="0.256183669976036"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2575,6 +2664,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2593,8 +2683,17 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2610,6 +2709,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2624,9 +2724,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$P$79:$W$79</c:f>
@@ -2756,9 +2858,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$P$80:$W$80</c:f>
@@ -2894,9 +2998,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$P$81:$W$81</c:f>
@@ -3006,16 +3112,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="514501064"/>
-        <c:axId val="527445896"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2113906296"/>
+        <c:axId val="2113909464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514501064"/>
+        <c:axId val="2113906296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="1"/>
@@ -3027,17 +3144,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527445896"/>
+        <c:crossAx val="2113909464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527445896"/>
+        <c:axId val="2113909464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -3056,8 +3175,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3069,7 +3191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514501064"/>
+        <c:crossAx val="2113906296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3095,6 +3217,7 @@
           <c:h val="0.0937441673957422"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3108,6 +3231,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3121,8 +3245,17 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3138,6 +3271,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3160,9 +3294,11 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$U$110:$Y$110</c:f>
@@ -3273,9 +3409,11 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$U$111:$Y$111</c:f>
@@ -3387,9 +3525,11 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$U$112:$Y$112</c:f>
@@ -3487,16 +3627,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="570702728"/>
-        <c:axId val="514435480"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2113305144"/>
+        <c:axId val="2113301960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="570702728"/>
+        <c:axId val="2113305144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3508,17 +3659,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514435480"/>
+        <c:crossAx val="2113301960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514435480"/>
+        <c:axId val="2113301960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -3537,8 +3690,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3550,7 +3706,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570702728"/>
+        <c:crossAx val="2113305144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000.0"/>
@@ -3575,6 +3731,7 @@
           <c:h val="0.241094286291137"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3588,6 +3745,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -3606,8 +3764,17 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3623,15 +3790,18 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Seqal(BWA)</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$F$147:$F$149</c:f>
@@ -3720,9 +3890,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$G$147:$G$149</c:f>
@@ -3811,9 +3983,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$H$147:$H$149</c:f>
@@ -3902,9 +4076,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$I$147:$I$149</c:f>
@@ -3993,9 +4169,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$J$147:$J$149</c:f>
@@ -4084,9 +4262,11 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$K$147:$K$149</c:f>
@@ -4161,15 +4341,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="476651688"/>
-        <c:axId val="571992488"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2113218376"/>
+        <c:axId val="2113212696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="476651688"/>
+        <c:axId val="2113218376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4188,8 +4377,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4201,17 +4393,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571992488"/>
+        <c:crossAx val="2113212696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="571992488"/>
+        <c:axId val="2113212696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -4230,8 +4424,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4243,7 +4440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476651688"/>
+        <c:crossAx val="2113218376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4269,6 +4466,7 @@
           <c:h val="0.418725600476411"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4282,6 +4480,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -4300,7 +4499,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4319,12 +4526,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4339,6 +4549,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$I$159:$I$161</c:f>
@@ -4390,6 +4601,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$I$159:$I$161</c:f>
@@ -4427,15 +4639,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="581212296"/>
-        <c:axId val="475807608"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2113187624"/>
+        <c:axId val="2113182120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="581212296"/>
+        <c:axId val="2113187624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4454,20 +4675,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475807608"/>
+        <c:crossAx val="2113182120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475807608"/>
+        <c:axId val="2113182120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -4486,10 +4712,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581212296"/>
+        <c:crossAx val="2113187624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4497,9 +4726,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4513,7 +4744,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4532,12 +4771,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4552,6 +4794,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$I$169:$I$171</c:f>
@@ -4603,6 +4846,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$I$169:$I$171</c:f>
@@ -4654,6 +4898,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$I$169:$I$171</c:f>
@@ -4691,15 +4936,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="582056472"/>
-        <c:axId val="571232120"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2113137560"/>
+        <c:axId val="2113131976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="582056472"/>
+        <c:axId val="2113137560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4718,20 +4972,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571232120"/>
+        <c:crossAx val="2113131976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="571232120"/>
+        <c:axId val="2113131976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -4750,10 +5009,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="582056472"/>
+        <c:crossAx val="2113137560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4761,9 +5023,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4777,7 +5041,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="25"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="125"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="25"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4803,7 +5075,9 @@
           <c:y val="0.444881889763779"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -4819,6 +5093,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4838,9 +5113,7 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$K$190:$K$191</c:f>
@@ -4873,17 +5146,23 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="573168760"/>
-        <c:axId val="582269464"/>
+        <c:axId val="2113095192"/>
+        <c:axId val="2113089640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="573168760"/>
+        <c:axId val="2113095192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4902,20 +5181,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="582269464"/>
+        <c:crossAx val="2113089640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="582269464"/>
+        <c:axId val="2113089640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -4934,10 +5218,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573168760"/>
+        <c:crossAx val="2113095192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000.0"/>
@@ -4945,6 +5232,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4958,7 +5246,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4978,12 +5274,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4998,9 +5297,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$195:$K$197</c:f>
@@ -5038,17 +5335,23 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="477022104"/>
-        <c:axId val="604349688"/>
+        <c:axId val="2113059080"/>
+        <c:axId val="2113053352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="477022104"/>
+        <c:axId val="2113059080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5068,20 +5371,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="604349688"/>
+        <c:crossAx val="2113053352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604349688"/>
+        <c:axId val="2113053352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -5100,10 +5408,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="477022104"/>
+        <c:crossAx val="2113059080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="300.0"/>
@@ -5111,6 +5422,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5124,8 +5436,17 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -5141,12 +5462,14 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>1-Thread</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$V$236:$V$238</c:f>
@@ -5190,6 +5513,7 @@
           <c:tx>
             <c:v>4-Threads</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$V$236:$V$238</c:f>
@@ -5227,15 +5551,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="581984216"/>
-        <c:axId val="514816696"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2113015432"/>
+        <c:axId val="2113009912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="581984216"/>
+        <c:axId val="2113015432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5254,20 +5587,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514816696"/>
+        <c:crossAx val="2113009912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514816696"/>
+        <c:axId val="2113009912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -5286,8 +5624,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -5299,7 +5640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581984216"/>
+        <c:crossAx val="2113015432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000.0"/>
@@ -5324,9 +5665,11 @@
           <c:h val="0.196326150020721"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -5350,7 +5693,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5369,21 +5720,26 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Map Phase time</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$D$51:$D$53</c:f>
@@ -5464,9 +5820,11 @@
           <c:tx>
             <c:v>Reduce phase time</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$F$51:$F$53</c:f>
@@ -5541,16 +5899,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="514450232"/>
-        <c:axId val="581205304"/>
+        <c:axId val="2115008792"/>
+        <c:axId val="2115003208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514450232"/>
+        <c:axId val="2115008792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5569,20 +5936,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581205304"/>
+        <c:crossAx val="2115003208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="581205304"/>
+        <c:axId val="2115003208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5602,10 +5974,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514450232"/>
+        <c:crossAx val="2115008792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5613,9 +5988,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5629,13 +6006,23 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5650,6 +6037,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>Sheet1!$O$261:$P$264</c:f>
@@ -5722,6 +6110,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>Sheet1!$O$261:$P$264</c:f>
@@ -5794,6 +6183,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>Sheet1!$O$261:$P$264</c:f>
@@ -5852,29 +6242,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="514153400"/>
-        <c:axId val="475982504"/>
+        <c:axId val="2112969720"/>
+        <c:axId val="2112966648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514153400"/>
+        <c:axId val="2112969720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475982504"/>
+        <c:crossAx val="2112966648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475982504"/>
+        <c:axId val="2112966648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -5893,10 +6296,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514153400"/>
+        <c:crossAx val="2112969720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5904,9 +6310,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5920,13 +6328,23 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5941,9 +6359,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$AE$281:$AE$286</c:f>
@@ -5994,13 +6414,13 @@
                 <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Hadoop</c:v>
+                    <c:v>Crossbow</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>PMR</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Hadoop</c:v>
+                    <c:v>Crossbow</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>PMR</c:v>
@@ -6053,6 +6473,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>Sheet1!$W$285:$X$291</c:f>
@@ -6060,13 +6481,13 @@
                 <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Hadoop</c:v>
+                    <c:v>Crossbow</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>PMR</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Hadoop</c:v>
+                    <c:v>Crossbow</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>PMR</c:v>
@@ -6119,9 +6540,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$AE$275:$AI$275</c:f>
@@ -6172,13 +6595,13 @@
                 <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Hadoop</c:v>
+                    <c:v>Crossbow</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>PMR</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Hadoop</c:v>
+                    <c:v>Crossbow</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>PMR</c:v>
@@ -6217,17 +6640,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="4"/>
         <c:overlap val="100"/>
-        <c:axId val="604359576"/>
-        <c:axId val="581252376"/>
+        <c:axId val="2112914888"/>
+        <c:axId val="2112908936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="604359576"/>
+        <c:axId val="2112914888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6246,8 +6677,10 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -6264,19 +6697,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581252376"/>
+        <c:crossAx val="2112908936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="581252376"/>
+        <c:axId val="2112908936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -6295,10 +6730,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="604359576"/>
+        <c:crossAx val="2112914888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000.0"/>
@@ -6314,9 +6752,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -6340,13 +6780,33 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.192627026401112"/>
+          <c:y val="0.0668269230769231"/>
+          <c:w val="0.680364983788791"/>
+          <c:h val="0.708397940642035"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6369,25 +6829,27 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$AE$281:$AE$286</c:f>
+                <c:f>Sheet1!$AB$286:$AB$290</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>140.4028382112562</c:v>
+                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>140.4028382112562</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
                     <c:v>142.5283057003681</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>29.48698243858353</c:v>
+                  </c:pt>
                   <c:pt idx="4">
-                    <c:v>29.48698243858353</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
                     <c:v>55.20742939908157</c:v>
                   </c:pt>
                 </c:numCache>
@@ -6395,20 +6857,20 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$AE$281:$AE$286</c:f>
+                <c:f>Sheet1!$Y$292:$Y$295</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>140.4028382112562</c:v>
+                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>140.4028382112562</c:v>
+                    <c:v>142.5283057003681</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>142.5283057003681</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
                     <c:v>29.48698243858353</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="3">
                     <c:v>55.20742939908157</c:v>
                   </c:pt>
                 </c:numCache>
@@ -6422,13 +6884,13 @@
                 <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Hadoop</c:v>
+                    <c:v>Crossbow</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>PMR</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Hadoop</c:v>
+                    <c:v>Crossbow</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>PMR</c:v>
@@ -6488,6 +6950,54 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$AC$286:$AC$290</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>68.0094581657581</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>86.74056145612534</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>66.14173199358339</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>42.71325599847712</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$AC$286:$AC$290</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>68.0094581657581</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>86.74056145612534</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>66.14173199358339</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>42.71325599847712</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>Sheet1!$W$285:$X$291</c:f>
@@ -6495,13 +7005,13 @@
                 <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Hadoop</c:v>
+                    <c:v>Crossbow</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>PMR</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Hadoop</c:v>
+                    <c:v>Crossbow</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>PMR</c:v>
@@ -6561,9 +7071,11 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$AE$275:$AI$275</c:f>
@@ -6614,13 +7126,13 @@
                 <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Hadoop</c:v>
+                    <c:v>Crossbow</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>PMR</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Hadoop</c:v>
+                    <c:v>Crossbow</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>PMR</c:v>
@@ -6659,16 +7171,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="4"/>
         <c:overlap val="100"/>
-        <c:axId val="573043160"/>
-        <c:axId val="604902952"/>
+        <c:axId val="2118611736"/>
+        <c:axId val="2118617592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="573043160"/>
+        <c:axId val="2118611736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6681,14 +7202,16 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400"/>
-                  <a:t># of Threads</a:t>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -6705,19 +7228,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604902952"/>
+        <c:crossAx val="2118617592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604902952"/>
+        <c:axId val="2118617592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -6736,10 +7261,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573043160"/>
+        <c:crossAx val="2118611736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000.0"/>
@@ -6764,6 +7292,7 @@
           <c:h val="0.252418609933374"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -6777,6 +7306,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -6805,7 +7335,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6824,21 +7362,26 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>chunk time</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$E$81:$E$83</c:f>
@@ -6919,9 +7462,11 @@
           <c:tx>
             <c:v>Map phase time</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$G$81:$G$83</c:f>
@@ -7002,9 +7547,11 @@
           <c:tx>
             <c:v>Reduce phase time</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$I$81:$I$83</c:f>
@@ -7079,16 +7626,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="514736888"/>
-        <c:axId val="553264360"/>
+        <c:axId val="2117572680"/>
+        <c:axId val="2117578264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514736888"/>
+        <c:axId val="2117572680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7107,20 +7663,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553264360"/>
+        <c:crossAx val="2117578264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553264360"/>
+        <c:axId val="2117578264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -7140,10 +7701,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514736888"/>
+        <c:crossAx val="2117572680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7151,9 +7715,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7167,7 +7733,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7186,21 +7760,26 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Map Phase time</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$F$5:$F$8</c:f>
@@ -7293,9 +7872,11 @@
           <c:tx>
             <c:v>Reduce phase time</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$H$5:$H$8</c:f>
@@ -7382,16 +7963,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="553025304"/>
-        <c:axId val="509665064"/>
+        <c:axId val="2111145880"/>
+        <c:axId val="2111140280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="553025304"/>
+        <c:axId val="2111145880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7410,20 +8000,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509665064"/>
+        <c:crossAx val="2111140280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="509665064"/>
+        <c:axId val="2111140280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -7443,10 +8038,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553025304"/>
+        <c:crossAx val="2111145880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7454,9 +8052,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7470,7 +8070,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -7488,6 +8096,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7502,9 +8111,11 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$D$51:$D$53</c:f>
@@ -7592,9 +8203,11 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'GS data analysis'!$H$56:$H$58</c:f>
@@ -7665,9 +8278,11 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$F$51:$F$53</c:f>
@@ -7742,16 +8357,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="582300712"/>
-        <c:axId val="583541640"/>
+        <c:axId val="2111087720"/>
+        <c:axId val="2111082120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="582300712"/>
+        <c:axId val="2111087720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7770,8 +8394,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -7783,18 +8410,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583541640"/>
+        <c:crossAx val="2111082120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="583541640"/>
+        <c:axId val="2111082120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -7813,8 +8442,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -7826,7 +8458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582300712"/>
+        <c:crossAx val="2111087720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000.0"/>
@@ -7851,6 +8483,7 @@
           <c:h val="0.243446160139074"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -7864,6 +8497,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -7882,7 +8516,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -7900,6 +8542,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7916,9 +8559,11 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$E$81:$E$83</c:f>
@@ -8010,9 +8655,11 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$G$81:$G$83</c:f>
@@ -8103,9 +8750,11 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'GS data analysis'!$I$81:$I$83</c:f>
@@ -8179,9 +8828,11 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'[1]GS Data Analaysis'!$I$81:$I$83</c:f>
@@ -8256,16 +8907,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="581536664"/>
-        <c:axId val="509692680"/>
+        <c:axId val="2111021704"/>
+        <c:axId val="2111016056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="581536664"/>
+        <c:axId val="2111021704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -8291,8 +8951,11 @@
               <c:y val="0.869026548672566"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="19050"/>
@@ -8307,17 +8970,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509692680"/>
+        <c:crossAx val="2111016056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="509692680"/>
+        <c:axId val="2111016056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -8336,8 +9001,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -8349,7 +9017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581536664"/>
+        <c:crossAx val="2111021704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8373,6 +9041,7 @@
           <c:h val="0.240263593660235"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -8386,6 +9055,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -8404,7 +9074,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8423,7 +9101,9 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -8438,6 +9118,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8502,15 +9183,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="513852056"/>
-        <c:axId val="514550136"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2114979688"/>
+        <c:axId val="2117590376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="513852056"/>
+        <c:axId val="2114979688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -8529,18 +9218,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514550136"/>
+        <c:crossAx val="2117590376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="514550136"/>
+        <c:axId val="2117590376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -8560,10 +9253,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513852056"/>
+        <c:crossAx val="2114979688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8571,9 +9267,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -8587,12 +9285,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8646,33 +9354,47 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="582715192"/>
-        <c:axId val="581086104"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2117633080"/>
+        <c:axId val="2117635976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="582715192"/>
+        <c:axId val="2117633080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581086104"/>
+        <c:crossAx val="2117635976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="581086104"/>
+        <c:axId val="2117635976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="582715192"/>
+        <c:crossAx val="2117633080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8680,9 +9402,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -8696,12 +9420,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8755,33 +9489,47 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="582953640"/>
-        <c:axId val="571732568"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2117664632"/>
+        <c:axId val="2117667528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="582953640"/>
+        <c:axId val="2117664632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571732568"/>
+        <c:crossAx val="2117667528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="571732568"/>
+        <c:axId val="2117667528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="582953640"/>
+        <c:crossAx val="2117664632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8789,9 +9537,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -9415,16 +10165,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>260</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>292</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9445,16 +10195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>325</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9735,19 +10485,6 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="GS Data Analaysis"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10072,15 +10809,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y158"/>
   <sheetViews>
     <sheetView topLeftCell="A90" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15">
       <c r="A1" s="1"/>
@@ -12968,9 +13704,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -12978,15 +13715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -13499,9 +14235,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -13509,15 +14246,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:AI290"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AI295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M230" workbookViewId="0">
-      <selection activeCell="Z301" sqref="Z301"/>
+    <sheetView tabSelected="1" topLeftCell="Q271" workbookViewId="0">
+      <selection activeCell="AG299" sqref="AG299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:24">
       <c r="A2" s="15" t="s">
@@ -17533,7 +18269,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="250" spans="17:28">
+    <row r="250" spans="17:28" ht="17">
       <c r="Q250" s="51" t="s">
         <v>318</v>
       </c>
@@ -17849,7 +18585,7 @@
         <v>1</v>
       </c>
       <c r="X286" t="s">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="Y286">
         <v>4509</v>
@@ -17859,6 +18595,18 @@
       </c>
       <c r="AA286">
         <v>1400</v>
+      </c>
+      <c r="AB286">
+        <f>AE275</f>
+        <v>140.40283821125621</v>
+      </c>
+      <c r="AC286">
+        <f>AE276</f>
+        <v>68.009458165758105</v>
+      </c>
+      <c r="AD286">
+        <f>AE277</f>
+        <v>66.025467140424766</v>
       </c>
       <c r="AE286">
         <v>55.207429399081569</v>
@@ -17883,13 +18631,25 @@
       <c r="AA287">
         <v>795</v>
       </c>
-    </row>
-    <row r="289" spans="23:27">
+      <c r="AB287">
+        <f>AF275</f>
+        <v>142.52830570036809</v>
+      </c>
+      <c r="AC287">
+        <f>AF276</f>
+        <v>86.740561456125349</v>
+      </c>
+      <c r="AD287">
+        <f>AF277</f>
+        <v>47.28261081586222</v>
+      </c>
+    </row>
+    <row r="289" spans="23:30">
       <c r="W289">
         <v>4</v>
       </c>
       <c r="X289" t="s">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="Y289">
         <v>2056</v>
@@ -17900,8 +18660,20 @@
       <c r="AA289">
         <v>532</v>
       </c>
-    </row>
-    <row r="290" spans="23:27">
+      <c r="AB289">
+        <f>AH275</f>
+        <v>29.486982438583528</v>
+      </c>
+      <c r="AC289">
+        <f>AH276</f>
+        <v>66.141731993583392</v>
+      </c>
+      <c r="AD289">
+        <f>AH277</f>
+        <v>9.6242009769341159</v>
+      </c>
+    </row>
+    <row r="290" spans="23:30">
       <c r="X290" t="s">
         <v>48</v>
       </c>
@@ -17914,14 +18686,82 @@
       <c r="AA290">
         <v>464</v>
       </c>
+      <c r="AB290">
+        <f>AI275</f>
+        <v>55.207429399081569</v>
+      </c>
+      <c r="AC290">
+        <f>AI276</f>
+        <v>42.713255998477123</v>
+      </c>
+      <c r="AD290">
+        <f>AI277</f>
+        <v>30.856871084698813</v>
+      </c>
+    </row>
+    <row r="292" spans="23:30">
+      <c r="Y292">
+        <f>AB286</f>
+        <v>140.40283821125621</v>
+      </c>
+      <c r="Z292">
+        <f t="shared" ref="Z292:AA292" si="48">AC286</f>
+        <v>68.009458165758105</v>
+      </c>
+      <c r="AA292">
+        <f t="shared" si="48"/>
+        <v>66.025467140424766</v>
+      </c>
+    </row>
+    <row r="293" spans="23:30">
+      <c r="Y293">
+        <f>AB287</f>
+        <v>142.52830570036809</v>
+      </c>
+      <c r="Z293">
+        <f t="shared" ref="Z293" si="49">AC287</f>
+        <v>86.740561456125349</v>
+      </c>
+      <c r="AA293">
+        <f t="shared" ref="AA293" si="50">AD287</f>
+        <v>47.28261081586222</v>
+      </c>
+    </row>
+    <row r="294" spans="23:30">
+      <c r="Y294">
+        <f>AB289</f>
+        <v>29.486982438583528</v>
+      </c>
+      <c r="Z294">
+        <f t="shared" ref="Z294:AA294" si="51">AC289</f>
+        <v>66.141731993583392</v>
+      </c>
+      <c r="AA294">
+        <f t="shared" si="51"/>
+        <v>9.6242009769341159</v>
+      </c>
+    </row>
+    <row r="295" spans="23:30">
+      <c r="Y295">
+        <f>AB290</f>
+        <v>55.207429399081569</v>
+      </c>
+      <c r="Z295">
+        <f t="shared" ref="Z295" si="52">AC290</f>
+        <v>42.713255998477123</v>
+      </c>
+      <c r="AA295">
+        <f t="shared" ref="AA295" si="53">AD290</f>
+        <v>30.856871084698813</v>
+      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
